--- a/xlsx/hangzhou-all.xlsx
+++ b/xlsx/hangzhou-all.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marginyu/work/crawler/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marginyu/work/crawler/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="4820" windowWidth="28800" windowHeight="17620" tabRatio="500"/>
+    <workbookView xWindow="4300" yWindow="3200" windowWidth="28800" windowHeight="17620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="mySheetName" sheetId="1" r:id="rId1"/>
@@ -13386,6 +13386,7 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -13756,7 +13757,7 @@
   <dimension ref="A1:O1404"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="A55" sqref="A55:XFD55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
